--- a/biology/Zoologie/Émile_Deville/Émile_Deville.xlsx
+++ b/biology/Zoologie/Émile_Deville/Émile_Deville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Deville</t>
+          <t>Émile_Deville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Deville (1824-1853) est un médecin, naturaliste et taxidermiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Deville</t>
+          <t>Émile_Deville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Employé au Muséum national d'histoire naturelle de Paris, il fait partie en tant que taxidermiste de l'expédition en Amérique du Sud que dirige Francis de Castelnau. Partie de Brest le 30 avril 1843, l'expédition, qui compte également dans ses rangs le botaniste Hugh Algernon Weddell (1819-1877), s'achève en 1847.
 Deville en rapporte de nombreux spécimens et notamment des perroquets dont il décrira de nouvelles espèces, par exemple la Conure de Bonaparte (Pyrrhura lucianii) et la Conure de Weddell (Aratinga weddellii). Il est également le descripteur avec Isidore Geoffroy Saint-Hilaire (1805-1861) du Callicebus discolor et avec Castelnau de différentes espèces de crabes.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Deville</t>
+          <t>Émile_Deville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Description de quelques Mammifères et Oiseaux nouveaux de L'Amérique méridionale. Revue et magasin de zoologie pure et appliquée, 1849, 1, p. 55-58
 Notice sur le Barbu orangé du Pérou (Capito Peruvianus); sur le Barbu de la Guyane (C. erythrocephalus ou Cayannensis), et sur une variété intermédiaire ou espèce nouvelle (C. amazonicus?), par MM. E. Deville et O. Des Murs. Revue et magasin de zoologie pure et appliquée, 1849, 1, p. 161-176
